--- a/evaluation_results_CNN.xlsx
+++ b/evaluation_results_CNN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnlab\Downloads\Deep proj_VF\Deep proj_VF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\Neurofeedback-Based-BCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8497AD7-41DD-4A33-963B-145C63783CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45F89E6-6A8E-42D0-A1BF-84B776B0D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="345" windowWidth="23790" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,18 +418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="18.140625" style="2"/>
+    <col min="1" max="16384" width="18.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0.90810810810810816</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -498,7 +498,7 @@
         <v>0.89830508474576276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -521,7 +521,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -542,6 +542,11 @@
       </c>
       <c r="G5" s="2">
         <v>0.90588235294117647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="2">
+        <v>91.25</v>
       </c>
     </row>
   </sheetData>
